--- a/2des/bcd/aula03/exercicios/normalizados/exercicio5_entregas.xlsx
+++ b/2des/bcd/aula03/exercicios/normalizados/exercicio5_entregas.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2022\2des\bcd\aula03\exercicios\normalizados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF0F2FC5-5089-4EEA-96B8-6B420EFB3534}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0C8A125-85EE-415C-B5C3-DED98B5E41E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dados_brutos" sheetId="1" r:id="rId1"/>
     <sheet name="clientes" sheetId="2" r:id="rId2"/>
     <sheet name="telefones" sheetId="3" r:id="rId3"/>
     <sheet name="entregadores" sheetId="4" r:id="rId4"/>
-    <sheet name="produto" sheetId="6" r:id="rId5"/>
-    <sheet name="pedido" sheetId="5" r:id="rId6"/>
+    <sheet name="produtos" sheetId="6" r:id="rId5"/>
+    <sheet name="pedidos" sheetId="5" r:id="rId6"/>
     <sheet name="itens" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -1415,7 +1415,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
@@ -1550,7 +1550,7 @@
         <v>15</v>
       </c>
       <c r="R2" s="3">
-        <f>N2*Q2</f>
+        <f t="shared" ref="R2:R30" si="0">N2*Q2</f>
         <v>30</v>
       </c>
     </row>
@@ -1607,7 +1607,7 @@
         <v>17</v>
       </c>
       <c r="R3" s="3">
-        <f>N3*Q3</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
     </row>
@@ -1664,7 +1664,7 @@
         <v>12</v>
       </c>
       <c r="R4" s="3">
-        <f>N4*Q4</f>
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
     </row>
@@ -1721,7 +1721,7 @@
         <v>20</v>
       </c>
       <c r="R5" s="3">
-        <f>N5*Q5</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
     </row>
@@ -1778,7 +1778,7 @@
         <v>12</v>
       </c>
       <c r="R6" s="3">
-        <f>N6*Q6</f>
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
     </row>
@@ -1835,7 +1835,7 @@
         <v>12</v>
       </c>
       <c r="R7" s="3">
-        <f>N7*Q7</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
     </row>
@@ -1892,7 +1892,7 @@
         <v>20</v>
       </c>
       <c r="R8" s="3">
-        <f>N8*Q8</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
@@ -1949,7 +1949,7 @@
         <v>22</v>
       </c>
       <c r="R9" s="3">
-        <f>N9*Q9</f>
+        <f t="shared" si="0"/>
         <v>66</v>
       </c>
     </row>
@@ -2006,7 +2006,7 @@
         <v>18</v>
       </c>
       <c r="R10" s="3">
-        <f>N10*Q10</f>
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
     </row>
@@ -2063,7 +2063,7 @@
         <v>17</v>
       </c>
       <c r="R11" s="3">
-        <f>N11*Q11</f>
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
     </row>
@@ -2120,7 +2120,7 @@
         <v>22</v>
       </c>
       <c r="R12" s="3">
-        <f>N12*Q12</f>
+        <f t="shared" si="0"/>
         <v>66</v>
       </c>
     </row>
@@ -2177,7 +2177,7 @@
         <v>18</v>
       </c>
       <c r="R13" s="3">
-        <f>N13*Q13</f>
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
     </row>
@@ -2234,7 +2234,7 @@
         <v>6</v>
       </c>
       <c r="R14" s="3">
-        <f>N14*Q14</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
@@ -2291,7 +2291,7 @@
         <v>17</v>
       </c>
       <c r="R15" s="3">
-        <f>N15*Q15</f>
+        <f t="shared" si="0"/>
         <v>51</v>
       </c>
     </row>
@@ -2348,7 +2348,7 @@
         <v>6</v>
       </c>
       <c r="R16" s="3">
-        <f>N16*Q16</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
@@ -2405,7 +2405,7 @@
         <v>15</v>
       </c>
       <c r="R17" s="3">
-        <f>N17*Q17</f>
+        <f t="shared" si="0"/>
         <v>45</v>
       </c>
     </row>
@@ -2462,7 +2462,7 @@
         <v>17</v>
       </c>
       <c r="R18" s="3">
-        <f>N18*Q18</f>
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
     </row>
@@ -2519,7 +2519,7 @@
         <v>20</v>
       </c>
       <c r="R19" s="3">
-        <f>N19*Q19</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
@@ -2576,7 +2576,7 @@
         <v>6</v>
       </c>
       <c r="R20" s="3">
-        <f>N20*Q20</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
     </row>
@@ -2633,7 +2633,7 @@
         <v>6</v>
       </c>
       <c r="R21" s="3">
-        <f>N21*Q21</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
     </row>
@@ -2690,7 +2690,7 @@
         <v>12</v>
       </c>
       <c r="R22" s="3">
-        <f>N22*Q22</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
     </row>
@@ -2747,7 +2747,7 @@
         <v>17</v>
       </c>
       <c r="R23" s="3">
-        <f>N23*Q23</f>
+        <f t="shared" si="0"/>
         <v>51</v>
       </c>
     </row>
@@ -2804,7 +2804,7 @@
         <v>12</v>
       </c>
       <c r="R24" s="3">
-        <f>N24*Q24</f>
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
     </row>
@@ -2861,7 +2861,7 @@
         <v>20</v>
       </c>
       <c r="R25" s="3">
-        <f>N25*Q25</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
     </row>
@@ -2918,7 +2918,7 @@
         <v>15</v>
       </c>
       <c r="R26" s="3">
-        <f>N26*Q26</f>
+        <f t="shared" si="0"/>
         <v>45</v>
       </c>
     </row>
@@ -2975,7 +2975,7 @@
         <v>18</v>
       </c>
       <c r="R27" s="3">
-        <f>N27*Q27</f>
+        <f t="shared" si="0"/>
         <v>54</v>
       </c>
     </row>
@@ -3032,7 +3032,7 @@
         <v>6</v>
       </c>
       <c r="R28" s="3">
-        <f>N28*Q28</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
@@ -3089,7 +3089,7 @@
         <v>12</v>
       </c>
       <c r="R29" s="3">
-        <f>N29*Q29</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
     </row>
@@ -3146,7 +3146,7 @@
         <v>18</v>
       </c>
       <c r="R30" s="3">
-        <f>N30*Q30</f>
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
     </row>
@@ -3163,7 +3163,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6907A4CE-15C9-4565-B320-4750AE5A2AC0}">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="A1:F1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3992,7 +3994,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59D8BF3D-B54C-43E7-9CE8-C8266DBB4F4A}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4176,7 +4180,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4890,7 +4894,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{697886D0-0C73-4119-9509-EB94C6EDA01F}">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="A1:C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
